--- a/output/fit_clients/fit_round_132.xlsx
+++ b/output/fit_clients/fit_round_132.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2296046532.22984</v>
+        <v>1873516471.485837</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1119628371785878</v>
+        <v>0.08237825828962006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04411520266578403</v>
+        <v>0.04042954674795598</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1148023301.519745</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2446595188.905537</v>
+        <v>2044539920.577929</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779437515435312</v>
+        <v>0.1714985572527878</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04049980832099496</v>
+        <v>0.03142537016251599</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1223297703.623859</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4651464764.427018</v>
+        <v>3245113581.03476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1596401178023441</v>
+        <v>0.1152879542466966</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02958620691240136</v>
+        <v>0.03389044025967954</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>48</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2325732442.494534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3556487176.174971</v>
+        <v>3269508285.498263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08636017759544809</v>
+        <v>0.0965439969370554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03159026652370037</v>
+        <v>0.0495858819009897</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1778243621.112767</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2166294634.314488</v>
+        <v>2677553384.014346</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09776096265499279</v>
+        <v>0.1233052254207816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0428747682027315</v>
+        <v>0.05683371325138146</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1083147328.695628</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3150549569.464089</v>
+        <v>2268399707.807884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06794900448616829</v>
+        <v>0.06640189964059122</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03395263762062214</v>
+        <v>0.0349379706162331</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1575274735.127635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2433098389.407847</v>
+        <v>3786057805.474045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2048208377278564</v>
+        <v>0.1867221515508561</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02854622992542429</v>
+        <v>0.0240739922701334</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1216549194.215464</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2280098024.088577</v>
+        <v>2105277528.091556</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1904667302979492</v>
+        <v>0.1406363804755061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03288512506878451</v>
+        <v>0.028014279072131</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1140048999.71914</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4975101324.900225</v>
+        <v>4141190714.100246</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1603976950044967</v>
+        <v>0.158920833348511</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05020959728008075</v>
+        <v>0.0535183036379436</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>56</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2487550759.772936</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4179568371.182752</v>
+        <v>3420202220.847829</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1560667185306727</v>
+        <v>0.1336532583991214</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03961168089556813</v>
+        <v>0.03770227673474871</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>54</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2089784210.730562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2406088238.213111</v>
+        <v>2056623942.173784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1982901870503977</v>
+        <v>0.1346625042542307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03377384537140859</v>
+        <v>0.03731886992594753</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1203044082.698241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4804809546.684761</v>
+        <v>4190457751.885778</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09219762517743385</v>
+        <v>0.08959622283526195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02773401924281497</v>
+        <v>0.03058207485922914</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>44</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2402404787.341347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2626182594.018575</v>
+        <v>3332384193.045782</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1558820374579802</v>
+        <v>0.1678139470166302</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04115277224229853</v>
+        <v>0.03946302103808609</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>42</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1313091358.474285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118373824.010407</v>
+        <v>1521926122.858171</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07316593010290713</v>
+        <v>0.07215037931477217</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04517053444758842</v>
+        <v>0.04499357828512339</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>559186910.9399143</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1956868369.857518</v>
+        <v>2154275743.751825</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09348783534243775</v>
+        <v>0.08350413479990509</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04245937635698181</v>
+        <v>0.03133808159174231</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>978434264.2281438</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3308224508.154698</v>
+        <v>3486161312.566381</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1572825637212667</v>
+        <v>0.109164385009371</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04916474641217931</v>
+        <v>0.04895417945849014</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>39</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1654112322.7722</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3512593348.921302</v>
+        <v>2734716286.569129</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1645393002689279</v>
+        <v>0.1465998910587057</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02964286427586201</v>
+        <v>0.02263381200592851</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>43</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1756296667.523184</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>921382630.3658708</v>
+        <v>1286438965.300385</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1771871359894369</v>
+        <v>0.1158116885862027</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02373703713140741</v>
+        <v>0.01836700672633948</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>460691325.2326584</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2418990305.520386</v>
+        <v>2690805159.281214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1517902536881368</v>
+        <v>0.1001579214313726</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02918740951114677</v>
+        <v>0.02934237363723793</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1209495134.411857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1895576908.540653</v>
+        <v>2214138199.639839</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07471545558757987</v>
+        <v>0.09708571589380592</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03013504016063445</v>
+        <v>0.03476093220638367</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>947788500.1562819</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2508002339.39736</v>
+        <v>3202523681.707022</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09554466553303724</v>
+        <v>0.1178402515841682</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04995274864403378</v>
+        <v>0.05280623154462039</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1254001260.651602</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1172261823.944542</v>
+        <v>992688381.3911493</v>
       </c>
       <c r="F23" t="n">
-        <v>0.119112124502382</v>
+        <v>0.1394923618792331</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03988229711605659</v>
+        <v>0.03443093351675633</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>586130953.0841321</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3920256912.467448</v>
+        <v>2669454526.150731</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1201298897914748</v>
+        <v>0.1084985744184257</v>
       </c>
       <c r="G24" t="n">
-        <v>0.028509699801916</v>
+        <v>0.02409135176888894</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1960128429.534557</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1019362216.864747</v>
+        <v>1258048341.17157</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1071473464531126</v>
+        <v>0.09512888168757386</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03097139333717932</v>
+        <v>0.02977456897343367</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>509681167.9175931</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1115766556.115954</v>
+        <v>1399417923.374075</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08148971282795046</v>
+        <v>0.1003544286262865</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03706666035425066</v>
+        <v>0.0283736975805544</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>557883278.4118016</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3898762770.667187</v>
+        <v>3087884104.460632</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1296900044989345</v>
+        <v>0.113646454666811</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01984063776607429</v>
+        <v>0.02282770540902921</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>30</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1949381400.453327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3670729194.914228</v>
+        <v>2745605388.421043</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1357561212672887</v>
+        <v>0.09729265463523577</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04570737748927053</v>
+        <v>0.04719414115163285</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1835364666.853164</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4846811064.828007</v>
+        <v>4447817321.158093</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1403593712247498</v>
+        <v>0.120707363886545</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03471250678041695</v>
+        <v>0.03539093020824773</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>60</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2423405490.522241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1682014666.850061</v>
+        <v>1919827549.645521</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1024356095966024</v>
+        <v>0.09267806623252495</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02775340401927685</v>
+        <v>0.03446158865794705</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>841007334.6536838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1144561789.45839</v>
+        <v>1497482803.073304</v>
       </c>
       <c r="F31" t="n">
-        <v>0.105326319528401</v>
+        <v>0.09433543626633926</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04870394740410914</v>
+        <v>0.04086257338800032</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>572280859.1993175</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1614469192.693982</v>
+        <v>1633856256.043844</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1050889090733764</v>
+        <v>0.0819325006467139</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03548551332825912</v>
+        <v>0.02583858627850792</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>807234688.3347888</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2863684834.078335</v>
+        <v>2424076673.039164</v>
       </c>
       <c r="F33" t="n">
-        <v>0.196006881254173</v>
+        <v>0.1745763655787652</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03793332393367854</v>
+        <v>0.05091161860732672</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>39</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1431842424.218633</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1394347514.146854</v>
+        <v>1159566659.649509</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1164043058631887</v>
+        <v>0.09016514222697176</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02313691970111638</v>
+        <v>0.02172995458631085</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>697173730.250743</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1331160981.61167</v>
+        <v>912385474.1548465</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102027088773724</v>
+        <v>0.07518378430943037</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02765436270266269</v>
+        <v>0.0356188236763072</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>665580436.711729</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3150821012.813678</v>
+        <v>3222731838.736091</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1345403980380145</v>
+        <v>0.1259544758588604</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02582649673096655</v>
+        <v>0.02181249354324449</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1575410476.201461</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2779737833.755881</v>
+        <v>2446009444.148109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1110542666599774</v>
+        <v>0.1121006500607681</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03464564069982816</v>
+        <v>0.03021546150907911</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1389869051.396917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1398435802.320392</v>
+        <v>2111462149.871785</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09553984731322281</v>
+        <v>0.1005248532450772</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02529001460277227</v>
+        <v>0.03507013616835216</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>699217964.7179401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1975822535.265186</v>
+        <v>1596553788.692795</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1746924628071666</v>
+        <v>0.1653554505012247</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0201800124016017</v>
+        <v>0.02626034342225216</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>987911265.7920816</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1597580477.35496</v>
+        <v>1551543208.436332</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1455010458138647</v>
+        <v>0.1214383951590108</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05280418592106306</v>
+        <v>0.05108170796429991</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>798790180.4041748</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2158513927.039981</v>
+        <v>2227047855.042833</v>
       </c>
       <c r="F41" t="n">
-        <v>0.116632864072858</v>
+        <v>0.1284607597658717</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0321444570714792</v>
+        <v>0.04103504331612707</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1079257022.161276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2949181033.296918</v>
+        <v>3284571108.141238</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09229409970152264</v>
+        <v>0.1225183299539579</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03328939367307377</v>
+        <v>0.04355426690488769</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1474590473.542753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2950328197.585117</v>
+        <v>2950159884.290379</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1320441311155729</v>
+        <v>0.1758686481484765</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0187821287230437</v>
+        <v>0.02434877411899401</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>43</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1475164102.123735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1651458581.018883</v>
+        <v>2031126205.626141</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06623194653264612</v>
+        <v>0.0850268519265592</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02382988403564298</v>
+        <v>0.02447020104950663</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>825729327.2559876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2028360249.98269</v>
+        <v>2110521364.833591</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1223106976492312</v>
+        <v>0.1467547271761897</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05290560071723253</v>
+        <v>0.04891652560258383</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1014180118.704336</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4351252476.359879</v>
+        <v>5138621327.825727</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1674183832049395</v>
+        <v>0.1291818400376605</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05645314855121181</v>
+        <v>0.05054559623859463</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2175626227.776308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3741439366.844136</v>
+        <v>4447837643.161092</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1366483317279869</v>
+        <v>0.1996881856703408</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05665063907000141</v>
+        <v>0.0594208797306723</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>35</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1870719667.890832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3683614297.258437</v>
+        <v>4680158460.390692</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07924200338199544</v>
+        <v>0.07699423000726416</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03249557626000313</v>
+        <v>0.0245105060165838</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1841807201.325858</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1393691133.950134</v>
+        <v>1254526464.344939</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1441700412096553</v>
+        <v>0.1935211767165582</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03296027132718646</v>
+        <v>0.0335550157180428</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>696845615.4824511</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2893087858.415825</v>
+        <v>3192128990.858144</v>
       </c>
       <c r="F50" t="n">
-        <v>0.178322154305346</v>
+        <v>0.1153923406542027</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04493055882933808</v>
+        <v>0.05025618452372174</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>45</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1446543996.612352</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1283493814.886647</v>
+        <v>1342033900.738383</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1317802489282723</v>
+        <v>0.1398660122076003</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04410406081226927</v>
+        <v>0.04490881232737914</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>641746945.400283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4175109577.863677</v>
+        <v>5013241970.593276</v>
       </c>
       <c r="F52" t="n">
-        <v>0.110269942112322</v>
+        <v>0.1092497374068301</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05342017984919786</v>
+        <v>0.04637337396874079</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2087554835.060302</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3657250887.136524</v>
+        <v>2766919661.799219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1577539477312156</v>
+        <v>0.2009718070003786</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02632480305276719</v>
+        <v>0.02544578818512208</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>38</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1828625430.545074</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3493906849.478103</v>
+        <v>3907815403.450245</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1379230808561402</v>
+        <v>0.1428559382288631</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04662134105036331</v>
+        <v>0.04644246603524904</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1746953449.03408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3739747473.522011</v>
+        <v>3407646477.97766</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1450282019347039</v>
+        <v>0.1659642036849125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02507517018270259</v>
+        <v>0.0315876684531971</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1869873700.121121</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1686467015.539886</v>
+        <v>1664333783.316317</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1299681211485053</v>
+        <v>0.1141506686005841</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04925861541366699</v>
+        <v>0.0385128692925765</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>843233522.3648481</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3100980457.742964</v>
+        <v>4199128888.577377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1472977368077627</v>
+        <v>0.1702667821245864</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02580398359243999</v>
+        <v>0.02502062080500409</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>42</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1550490241.713164</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1206592056.232742</v>
+        <v>1761952403.480461</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2021551270303452</v>
+        <v>0.1392829207469578</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03018237126878708</v>
+        <v>0.03633583399189626</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>603296085.9837328</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5312537912.366455</v>
+        <v>4215300886.582863</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1235060334508114</v>
+        <v>0.09008556444697141</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03535722841500222</v>
+        <v>0.03921125673825755</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>36</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2656268868.75859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2728142668.421226</v>
+        <v>3322607795.697665</v>
       </c>
       <c r="F60" t="n">
-        <v>0.197151403521091</v>
+        <v>0.1803981585082027</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02681450994934317</v>
+        <v>0.02597555518387487</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>43</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1364071376.005809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3343210454.20111</v>
+        <v>2273067826.900616</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1183181047599181</v>
+        <v>0.1356260908204497</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02657509089512251</v>
+        <v>0.02943902918215878</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>45</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1671605175.154772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2050862543.032634</v>
+        <v>1567181433.782992</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1806284341290303</v>
+        <v>0.1504311789894923</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04278472878547913</v>
+        <v>0.04438593972927903</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1025431337.183859</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3604289312.234788</v>
+        <v>4781133198.862271</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08815326692575186</v>
+        <v>0.08165078898385859</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03222016955422773</v>
+        <v>0.03649231214312995</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>38</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1802144736.117419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5030004304.709741</v>
+        <v>5470322333.990407</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1589130078007043</v>
+        <v>0.1535288801698125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02972207274800278</v>
+        <v>0.02813514456283198</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>41</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2515002260.616928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4028168041.845075</v>
+        <v>3930791111.597799</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1729300707489922</v>
+        <v>0.1491526281123024</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01976092285947195</v>
+        <v>0.02364658456102195</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>48</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2014084037.77845</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4139578714.292233</v>
+        <v>4034569008.907496</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1548486754625102</v>
+        <v>0.1558207668456605</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03437691350096677</v>
+        <v>0.0384834178247464</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>38</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2069789338.191599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2132491806.908243</v>
+        <v>3255748169.862369</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07341299886722916</v>
+        <v>0.1005847538027911</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03686869399746519</v>
+        <v>0.04692425038477763</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>42</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1066245995.143299</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4961655162.918741</v>
+        <v>4776854479.305039</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1552737804198409</v>
+        <v>0.1200835967570753</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04672447347503366</v>
+        <v>0.03436688216195351</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>42</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2480827635.477646</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2073226199.690848</v>
+        <v>1755405115.00246</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1264865417821521</v>
+        <v>0.1472975340752464</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05475515254275692</v>
+        <v>0.04651018292872738</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1036613114.244321</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2495363592.921422</v>
+        <v>3477597523.055152</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06644099438016583</v>
+        <v>0.0705265030250312</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03683557617606337</v>
+        <v>0.04632647023030045</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1247681740.537791</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3587504074.981232</v>
+        <v>3609993794.068359</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1324898066995476</v>
+        <v>0.1625628803027485</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02943006814834962</v>
+        <v>0.03040456234276234</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>48</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1793752037.696807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2145930619.660491</v>
+        <v>2148616566.76175</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09726263963259056</v>
+        <v>0.07757823013475609</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0530087993434079</v>
+        <v>0.03629474874404567</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1072965232.612448</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2301192964.861457</v>
+        <v>2561136263.2922</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07089637179744428</v>
+        <v>0.1043421319277504</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0390157079853332</v>
+        <v>0.04516236729603423</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1150596542.321032</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3837056012.769516</v>
+        <v>3395656059.518881</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1390648361713644</v>
+        <v>0.1424330386551093</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03104477702147044</v>
+        <v>0.03340086105630547</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>45</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1918527999.390177</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1937900867.75458</v>
+        <v>2388526274.248207</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1541359914064633</v>
+        <v>0.1247581949868076</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02990505604798216</v>
+        <v>0.03596712155718564</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>968950403.8379165</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4200756483.623514</v>
+        <v>3960978635.846874</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1073584447382268</v>
+        <v>0.08737989683366566</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02457478847729268</v>
+        <v>0.02177379719177202</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2100378234.914191</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1702078802.347414</v>
+        <v>2210168089.580455</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1300870393914027</v>
+        <v>0.1786262642924351</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02556151308295928</v>
+        <v>0.02932255151825864</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>851039418.6523917</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3092799218.635539</v>
+        <v>4216899888.025395</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244028215521742</v>
+        <v>0.1006784242913051</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04554272325520854</v>
+        <v>0.0532177170771053</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>46</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1546399639.925161</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1280370434.808626</v>
+        <v>1425575558.953293</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1370094153849499</v>
+        <v>0.1632900052594266</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0264659330378565</v>
+        <v>0.03576174161952281</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>640185213.1167673</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3504171619.649337</v>
+        <v>3850426341.075496</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08964215748452949</v>
+        <v>0.08540489321123369</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02635936903226689</v>
+        <v>0.0376404989547191</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1752085784.603325</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3430155859.927858</v>
+        <v>3847254708.75918</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0869857061178195</v>
+        <v>0.1061786901391418</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03281187647149836</v>
+        <v>0.02340175205003631</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1715077871.953738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5067118053.393881</v>
+        <v>4164541725.312337</v>
       </c>
       <c r="F82" t="n">
-        <v>0.151998518507426</v>
+        <v>0.1657411507827373</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02624056976340838</v>
+        <v>0.02321476885715195</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2533559006.817046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2346305144.453012</v>
+        <v>1843939829.489264</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1434614655751282</v>
+        <v>0.1571579239749945</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03310759401557647</v>
+        <v>0.03590317497932412</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1173152600.615831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2162839480.030892</v>
+        <v>1955844298.750146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08208219998541967</v>
+        <v>0.1115263723125282</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03594370788118788</v>
+        <v>0.05163343267938202</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1081419721.153513</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2297978999.342291</v>
+        <v>3610785837.452748</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1576523932576127</v>
+        <v>0.122557863460494</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04664781222789496</v>
+        <v>0.04406503053251681</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>50</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1148989482.273478</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2145225860.260536</v>
+        <v>2254950607.201283</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1601039267884128</v>
+        <v>0.1437079509571018</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02332262491778649</v>
+        <v>0.02075386000785858</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1072612977.917389</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>953919424.7348635</v>
+        <v>1285660154.923764</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1901887267091692</v>
+        <v>0.1737246950850222</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03096050991923445</v>
+        <v>0.04047933085020346</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>476959704.8197384</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2389810869.327206</v>
+        <v>3023248363.625166</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1454106631365705</v>
+        <v>0.1762719343463779</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03830684671503504</v>
+        <v>0.03769703418775434</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>53</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1194905404.775847</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3066058711.049911</v>
+        <v>2335757457.320683</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1223369873235468</v>
+        <v>0.145562573504856</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02595651870300547</v>
+        <v>0.04069343707824603</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1533029388.745338</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1496813187.341545</v>
+        <v>2000853650.825075</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1122708847785695</v>
+        <v>0.1348042748154802</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05340117299149771</v>
+        <v>0.03624439063083731</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>748406571.803203</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2061139557.109872</v>
+        <v>1972799658.375672</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1852637423130326</v>
+        <v>0.1701920234144826</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06006212562164659</v>
+        <v>0.05810745599210813</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1030569742.612112</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2954607878.493575</v>
+        <v>2205708132.62189</v>
       </c>
       <c r="F92" t="n">
-        <v>0.107222258435053</v>
+        <v>0.0712575804009573</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0313707511818125</v>
+        <v>0.03841641727109636</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>31</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1477303957.496004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4438841804.604643</v>
+        <v>4151377820.283155</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1273461743238617</v>
+        <v>0.0895557948170682</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04757257859629346</v>
+        <v>0.03645388851615275</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2219420874.518111</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2018225945.863328</v>
+        <v>2123206869.185903</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1672057439396709</v>
+        <v>0.1212147452434172</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04059116027521045</v>
+        <v>0.039090108532462</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1009112973.581255</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2480973124.385473</v>
+        <v>2221440392.749505</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1088061790958297</v>
+        <v>0.1167744274744533</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04606920034099727</v>
+        <v>0.04330283480525335</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1240486599.609412</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2340972188.33018</v>
+        <v>1782761722.048694</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1323195469753827</v>
+        <v>0.128855993274966</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03761656841887188</v>
+        <v>0.03008704295294909</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1170486044.675119</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4374194297.139099</v>
+        <v>3507280756.822875</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1266772530569395</v>
+        <v>0.1746225591608014</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0283514112221818</v>
+        <v>0.01771790688256646</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2187097234.996955</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2674571908.324385</v>
+        <v>3039199591.041038</v>
       </c>
       <c r="F98" t="n">
-        <v>0.123529983263493</v>
+        <v>0.1123385469143044</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02757372504204386</v>
+        <v>0.02584005440632971</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>35</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1337285916.738576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2320705832.49167</v>
+        <v>3425525188.950841</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1299129887920216</v>
+        <v>0.1015993961958441</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02808405317439673</v>
+        <v>0.02536820726433736</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1160352852.958755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4147308842.66023</v>
+        <v>4382955916.09676</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1488182544271261</v>
+        <v>0.117381219666038</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02597136239897513</v>
+        <v>0.02447211275057944</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>40</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2073654503.717447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2702812784.707007</v>
+        <v>2640382871.96135</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1870940042258864</v>
+        <v>0.1360052039253176</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03725940402288175</v>
+        <v>0.04646705470150368</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>55</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1351406442.075985</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_132.xlsx
+++ b/output/fit_clients/fit_round_132.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1873516471.485837</v>
+        <v>2396206171.71487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08237825828962006</v>
+        <v>0.1109852899451787</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04042954674795598</v>
+        <v>0.03767061175047949</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2044539920.577929</v>
+        <v>2639818919.637505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1714985572527878</v>
+        <v>0.1276093651692378</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03142537016251599</v>
+        <v>0.0406112984214427</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3245113581.03476</v>
+        <v>4601285592.281522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1152879542466966</v>
+        <v>0.1413694373311426</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03389044025967954</v>
+        <v>0.0329427133685716</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3269508285.498263</v>
+        <v>2931843387.647742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0965439969370554</v>
+        <v>0.0829047879786828</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0495858819009897</v>
+        <v>0.04055578308178417</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2677553384.014346</v>
+        <v>2706263765.380113</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1233052254207816</v>
+        <v>0.09758119988541084</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05683371325138146</v>
+        <v>0.03646213451914753</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2268399707.807884</v>
+        <v>2676717828.354494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06640189964059122</v>
+        <v>0.09301086443021898</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0349379706162331</v>
+        <v>0.04250930084842557</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3786057805.474045</v>
+        <v>3603458308.508333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1867221515508561</v>
+        <v>0.1698565203764917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0240739922701334</v>
+        <v>0.03119691444227463</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2105277528.091556</v>
+        <v>1509551781.663176</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1406363804755061</v>
+        <v>0.1984813998261024</v>
       </c>
       <c r="G9" t="n">
-        <v>0.028014279072131</v>
+        <v>0.03432281973941607</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4141190714.100246</v>
+        <v>5001252855.865644</v>
       </c>
       <c r="F10" t="n">
-        <v>0.158920833348511</v>
+        <v>0.2147079871183107</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0535183036379436</v>
+        <v>0.03323456391456619</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3420202220.847829</v>
+        <v>3178451140.545864</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1336532583991214</v>
+        <v>0.14640939947578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03770227673474871</v>
+        <v>0.03811308848314961</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2056623942.173784</v>
+        <v>2504774950.112675</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1346625042542307</v>
+        <v>0.1967972187838476</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03731886992594753</v>
+        <v>0.05175893187952704</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4190457751.885778</v>
+        <v>3600320334.947466</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08959622283526195</v>
+        <v>0.08304971844757016</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03058207485922914</v>
+        <v>0.03075056249669919</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3332384193.045782</v>
+        <v>2798617147.541569</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1678139470166302</v>
+        <v>0.1777248355545961</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03946302103808609</v>
+        <v>0.03425268799176029</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1521926122.858171</v>
+        <v>1225077569.634347</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07215037931477217</v>
+        <v>0.1067521729734736</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04499357828512339</v>
+        <v>0.03449524470268744</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2154275743.751825</v>
+        <v>2641312915.315675</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08350413479990509</v>
+        <v>0.07652379304808196</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03133808159174231</v>
+        <v>0.05029868333229935</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3486161312.566381</v>
+        <v>3805835789.912601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.109164385009371</v>
+        <v>0.1486387368029814</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04895417945849014</v>
+        <v>0.0494313094314731</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2734716286.569129</v>
+        <v>2981933810.512764</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1465998910587057</v>
+        <v>0.1594582585157878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02263381200592851</v>
+        <v>0.02758770941051603</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1286438965.300385</v>
+        <v>1146027692.873454</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1158116885862027</v>
+        <v>0.1732516118812519</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01836700672633948</v>
+        <v>0.02203508008831547</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2690805159.281214</v>
+        <v>2399275343.372844</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1001579214313726</v>
+        <v>0.1260940631555364</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02934237363723793</v>
+        <v>0.02868519124124893</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2214138199.639839</v>
+        <v>1769870561.203804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09708571589380592</v>
+        <v>0.07278717027028529</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03476093220638367</v>
+        <v>0.03619234479069326</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3202523681.707022</v>
+        <v>3729621497.825237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1178402515841682</v>
+        <v>0.1134993925801093</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05280623154462039</v>
+        <v>0.04584851813517474</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>992688381.3911493</v>
+        <v>1219548804.147975</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1394923618792331</v>
+        <v>0.1282294978394749</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03443093351675633</v>
+        <v>0.03341124214646411</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2669454526.150731</v>
+        <v>3787745156.408426</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1084985744184257</v>
+        <v>0.12966565037261</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02409135176888894</v>
+        <v>0.02932795910943763</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1258048341.17157</v>
+        <v>1480603121.841815</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09512888168757386</v>
+        <v>0.08596358456904307</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02977456897343367</v>
+        <v>0.02358327464322357</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1399417923.374075</v>
+        <v>1166064345.310338</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1003544286262865</v>
+        <v>0.08182656799992342</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0283736975805544</v>
+        <v>0.03161755280314834</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3087884104.460632</v>
+        <v>4084441996.267231</v>
       </c>
       <c r="F27" t="n">
-        <v>0.113646454666811</v>
+        <v>0.1346802270398422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02282770540902921</v>
+        <v>0.02311272193842327</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2745605388.421043</v>
+        <v>2996100818.102555</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09729265463523577</v>
+        <v>0.1199416102352995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04719414115163285</v>
+        <v>0.03484002186466052</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4447817321.158093</v>
+        <v>3981493015.54015</v>
       </c>
       <c r="F29" t="n">
-        <v>0.120707363886545</v>
+        <v>0.1030522240420784</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03539093020824773</v>
+        <v>0.04612405382795534</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1919827549.645521</v>
+        <v>1471201403.760833</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09267806623252495</v>
+        <v>0.09648624408256611</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03446158865794705</v>
+        <v>0.03468347149540302</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1497482803.073304</v>
+        <v>1401763908.209141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09433543626633926</v>
+        <v>0.09389694605497229</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04086257338800032</v>
+        <v>0.04798152996940794</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1633856256.043844</v>
+        <v>1456017122.328009</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0819325006467139</v>
+        <v>0.08864503542958271</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02583858627850792</v>
+        <v>0.02926325656319234</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2424076673.039164</v>
+        <v>2862200087.055489</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1745763655787652</v>
+        <v>0.1749878649850403</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05091161860732672</v>
+        <v>0.05058748611279101</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1159566659.649509</v>
+        <v>1279456390.753769</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09016514222697176</v>
+        <v>0.08306777926484818</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02172995458631085</v>
+        <v>0.01924349272695148</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>912385474.1548465</v>
+        <v>1286464589.946599</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07518378430943037</v>
+        <v>0.1013927116211423</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0356188236763072</v>
+        <v>0.04202051236213036</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3222731838.736091</v>
+        <v>2505804511.213625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1259544758588604</v>
+        <v>0.1756139484507857</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02181249354324449</v>
+        <v>0.02155635621102538</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2446009444.148109</v>
+        <v>2366553118.251275</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1121006500607681</v>
+        <v>0.09156479815579958</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03021546150907911</v>
+        <v>0.02578216447780408</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2111462149.871785</v>
+        <v>1460519456.435026</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1005248532450772</v>
+        <v>0.1216677564576766</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03507013616835216</v>
+        <v>0.03121137254897102</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1596553788.692795</v>
+        <v>1976941723.70866</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1653554505012247</v>
+        <v>0.1667034585002291</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02626034342225216</v>
+        <v>0.02853261935163335</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1551543208.436332</v>
+        <v>1613625690.797976</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1214383951590108</v>
+        <v>0.1030646250122649</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05108170796429991</v>
+        <v>0.04977035245215251</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2227047855.042833</v>
+        <v>1909302600.936836</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1284607597658717</v>
+        <v>0.1492954234129101</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04103504331612707</v>
+        <v>0.02861665121715903</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3284571108.141238</v>
+        <v>3326195135.143108</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1225183299539579</v>
+        <v>0.08260268607808222</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04355426690488769</v>
+        <v>0.04078387216810882</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2950159884.290379</v>
+        <v>2302643206.305526</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1758686481484765</v>
+        <v>0.1716971687494698</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02434877411899401</v>
+        <v>0.0253432678229524</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2031126205.626141</v>
+        <v>2110520313.913019</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0850268519265592</v>
+        <v>0.08560945096196093</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02447020104950663</v>
+        <v>0.02669156532705776</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2110521364.833591</v>
+        <v>1632138663.429305</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1467547271761897</v>
+        <v>0.1306215053944494</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04891652560258383</v>
+        <v>0.04350566609524081</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5138621327.825727</v>
+        <v>4850382954.178439</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1291818400376605</v>
+        <v>0.1237367191437894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05054559623859463</v>
+        <v>0.03730668023625387</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4447837643.161092</v>
+        <v>3492672867.278926</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1996881856703408</v>
+        <v>0.2032847575888807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0594208797306723</v>
+        <v>0.05271976391969618</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4680158460.390692</v>
+        <v>4690536737.400821</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07699423000726416</v>
+        <v>0.07571198710210178</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0245105060165838</v>
+        <v>0.03904893811289724</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1254526464.344939</v>
+        <v>1956994703.127564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1935211767165582</v>
+        <v>0.1474452409772153</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0335550157180428</v>
+        <v>0.03942215220308815</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3192128990.858144</v>
+        <v>2797038453.304004</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1153923406542027</v>
+        <v>0.1146840521249682</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05025618452372174</v>
+        <v>0.05153347291874251</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1342033900.738383</v>
+        <v>1540667356.541477</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1398660122076003</v>
+        <v>0.1301444939939539</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04490881232737914</v>
+        <v>0.04569604134270645</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5013241970.593276</v>
+        <v>4201598621.644207</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1092497374068301</v>
+        <v>0.1011721130497634</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04637337396874079</v>
+        <v>0.05827578457387476</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2766919661.799219</v>
+        <v>2873787448.66643</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2009718070003786</v>
+        <v>0.1469780100822031</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02544578818512208</v>
+        <v>0.02730297757267837</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3907815403.450245</v>
+        <v>4196699168.604906</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1428559382288631</v>
+        <v>0.1376296806352246</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04644246603524904</v>
+        <v>0.04608999868476878</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3407646477.97766</v>
+        <v>4494986994.789444</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1659642036849125</v>
+        <v>0.2086546394757254</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0315876684531971</v>
+        <v>0.03016463429396461</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1664333783.316317</v>
+        <v>1466396153.014019</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1141506686005841</v>
+        <v>0.1181688417008625</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0385128692925765</v>
+        <v>0.04757126204921321</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4199128888.577377</v>
+        <v>3226121687.890898</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1702667821245864</v>
+        <v>0.1395278254099912</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02502062080500409</v>
+        <v>0.02392363679818646</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1761952403.480461</v>
+        <v>1590246067.922508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1392829207469578</v>
+        <v>0.1703283862531672</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03633583399189626</v>
+        <v>0.03073432257440657</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4215300886.582863</v>
+        <v>4499388554.860188</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09008556444697141</v>
+        <v>0.126111546222329</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03921125673825755</v>
+        <v>0.03481817967690095</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3322607795.697665</v>
+        <v>3072121018.391226</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1803981585082027</v>
+        <v>0.1281826539697666</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02597555518387487</v>
+        <v>0.03157149823729995</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2273067826.900616</v>
+        <v>3398969770.970562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1356260908204497</v>
+        <v>0.1641250366974244</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02943902918215878</v>
+        <v>0.03106894087380454</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1567181433.782992</v>
+        <v>1687546507.974336</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1504311789894923</v>
+        <v>0.1585892445050849</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04438593972927903</v>
+        <v>0.03959923830875636</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4781133198.862271</v>
+        <v>3979710976.221956</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08165078898385859</v>
+        <v>0.08419649031825292</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03649231214312995</v>
+        <v>0.03018945406700578</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5470322333.990407</v>
+        <v>3761982335.662062</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1535288801698125</v>
+        <v>0.1702100927625014</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02813514456283198</v>
+        <v>0.03157169449482288</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3930791111.597799</v>
+        <v>4264820756.179142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1491526281123024</v>
+        <v>0.1722410436812398</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02364658456102195</v>
+        <v>0.029333122330646</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4034569008.907496</v>
+        <v>5494088884.962921</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1558207668456605</v>
+        <v>0.1220093839383975</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0384834178247464</v>
+        <v>0.04777565875520071</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3255748169.862369</v>
+        <v>3487694457.26549</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1005847538027911</v>
+        <v>0.09126534267228399</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04692425038477763</v>
+        <v>0.03251095233378133</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4776854479.305039</v>
+        <v>4762212529.211109</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1200835967570753</v>
+        <v>0.1345906390501291</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03436688216195351</v>
+        <v>0.03307536611169705</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1755405115.00246</v>
+        <v>2344256624.033198</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1472975340752464</v>
+        <v>0.1778399893814783</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04651018292872738</v>
+        <v>0.04229943618233672</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3477597523.055152</v>
+        <v>2647637959.673859</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0705265030250312</v>
+        <v>0.08072520604341493</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04632647023030045</v>
+        <v>0.036537079349505</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3609993794.068359</v>
+        <v>5411368241.555616</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1625628803027485</v>
+        <v>0.1173883371496799</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03040456234276234</v>
+        <v>0.02484442464029841</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2148616566.76175</v>
+        <v>1814305573.627757</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07757823013475609</v>
+        <v>0.09701028873390492</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03629474874404567</v>
+        <v>0.03223052319384268</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2561136263.2922</v>
+        <v>2418761518.191198</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043421319277504</v>
+        <v>0.0761139627230026</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04516236729603423</v>
+        <v>0.04245358230776373</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3395656059.518881</v>
+        <v>2995871854.719574</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1424330386551093</v>
+        <v>0.1781519596273167</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03340086105630547</v>
+        <v>0.02879085657924542</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2388526274.248207</v>
+        <v>2003495991.969117</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1247581949868076</v>
+        <v>0.1086239196448111</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03596712155718564</v>
+        <v>0.0325812816375307</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3960978635.846874</v>
+        <v>5253333968.952751</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08737989683366566</v>
+        <v>0.08352376653561863</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02177379719177202</v>
+        <v>0.0210729549387468</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2210168089.580455</v>
+        <v>2009189001.01439</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1786262642924351</v>
+        <v>0.1583279570952362</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02932255151825864</v>
+        <v>0.02372946860286188</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4216899888.025395</v>
+        <v>4145718362.99173</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1006784242913051</v>
+        <v>0.09643148438890387</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0532177170771053</v>
+        <v>0.0478597647377268</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1425575558.953293</v>
+        <v>1268038432.545306</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1632900052594266</v>
+        <v>0.1091439087130422</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03576174161952281</v>
+        <v>0.03201621286241882</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3850426341.075496</v>
+        <v>3765871303.134054</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08540489321123369</v>
+        <v>0.07448684135933335</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0376404989547191</v>
+        <v>0.03163069077244255</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3847254708.75918</v>
+        <v>4313274190.540339</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1061786901391418</v>
+        <v>0.08432383725028372</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02340175205003631</v>
+        <v>0.02737357234432824</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4164541725.312337</v>
+        <v>4909703989.998265</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1657411507827373</v>
+        <v>0.1809512187538763</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02321476885715195</v>
+        <v>0.02138250414612257</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1843939829.489264</v>
+        <v>2203415922.002769</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1571579239749945</v>
+        <v>0.1340392247472233</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03590317497932412</v>
+        <v>0.043293512930582</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1955844298.750146</v>
+        <v>1733581792.061079</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115263723125282</v>
+        <v>0.09722008767433998</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05163343267938202</v>
+        <v>0.03403306240126765</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3610785837.452748</v>
+        <v>3085677995.791245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.122557863460494</v>
+        <v>0.112929249112446</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04406503053251681</v>
+        <v>0.04992756697454272</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2254950607.201283</v>
+        <v>2365397808.362731</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1437079509571018</v>
+        <v>0.1127551679317101</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02075386000785858</v>
+        <v>0.02088715193475412</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1285660154.923764</v>
+        <v>1007891152.064694</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1737246950850222</v>
+        <v>0.1884325753335482</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04047933085020346</v>
+        <v>0.03715237151930755</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3023248363.625166</v>
+        <v>3374144327.239747</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1762719343463779</v>
+        <v>0.1454615610901801</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03769703418775434</v>
+        <v>0.02815473161753416</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2335757457.320683</v>
+        <v>2472683992.211576</v>
       </c>
       <c r="F89" t="n">
-        <v>0.145562573504856</v>
+        <v>0.1420166456699191</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04069343707824603</v>
+        <v>0.03451578877003329</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2000853650.825075</v>
+        <v>1881873911.070088</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1348042748154802</v>
+        <v>0.1052985883828231</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03624439063083731</v>
+        <v>0.05484006476994088</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1972799658.375672</v>
+        <v>1541114647.495481</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1701920234144826</v>
+        <v>0.1878619144236563</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05810745599210813</v>
+        <v>0.04098686132043623</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2205708132.62189</v>
+        <v>2603534195.742038</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0712575804009573</v>
+        <v>0.09828430792005495</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03841641727109636</v>
+        <v>0.03640783297467656</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4151377820.283155</v>
+        <v>3290075405.635941</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0895557948170682</v>
+        <v>0.1278326581441236</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03645388851615275</v>
+        <v>0.03536528984258882</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2123206869.185903</v>
+        <v>2283724197.322232</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1212147452434172</v>
+        <v>0.1531028404081932</v>
       </c>
       <c r="G94" t="n">
-        <v>0.039090108532462</v>
+        <v>0.02611005320163975</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2221440392.749505</v>
+        <v>2485861546.243569</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1167744274744533</v>
+        <v>0.1060990855431677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04330283480525335</v>
+        <v>0.04971599022216903</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1782761722.048694</v>
+        <v>1993737480.37969</v>
       </c>
       <c r="F96" t="n">
-        <v>0.128855993274966</v>
+        <v>0.1238765943895525</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03008704295294909</v>
+        <v>0.04224979826828346</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3507280756.822875</v>
+        <v>4868031759.356664</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746225591608014</v>
+        <v>0.1720408427856453</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01771790688256646</v>
+        <v>0.01802609103110457</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3039199591.041038</v>
+        <v>3915340624.298676</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1123385469143044</v>
+        <v>0.1063697343601477</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02584005440632971</v>
+        <v>0.02345167785436714</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3425525188.950841</v>
+        <v>2619046105.164305</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1015993961958441</v>
+        <v>0.09802979519653103</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02536820726433736</v>
+        <v>0.02897747387141238</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4382955916.09676</v>
+        <v>3359719921.070699</v>
       </c>
       <c r="F100" t="n">
-        <v>0.117381219666038</v>
+        <v>0.1520588300708625</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02447211275057944</v>
+        <v>0.02722056692457386</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2640382871.96135</v>
+        <v>3201659603.668903</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1360052039253176</v>
+        <v>0.2221603930209507</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04646705470150368</v>
+        <v>0.05859700733517063</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_132.xlsx
+++ b/output/fit_clients/fit_round_132.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2396206171.71487</v>
+        <v>1724267834.378794</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1109852899451787</v>
+        <v>0.09783248091616469</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03767061175047949</v>
+        <v>0.04520549033312814</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2639818919.637505</v>
+        <v>2477355332.943574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1276093651692378</v>
+        <v>0.1423175376944654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0406112984214427</v>
+        <v>0.03342035242458063</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4601285592.281522</v>
+        <v>3250516503.660459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1413694373311426</v>
+        <v>0.1029047245002544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0329427133685716</v>
+        <v>0.02537754645392921</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>128</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2931843387.647742</v>
+        <v>3856167584.455151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0829047879786828</v>
+        <v>0.07546932048203381</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04055578308178417</v>
+        <v>0.03076686554370465</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K5" t="n">
+        <v>153.8437641004977</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2706263765.380113</v>
+        <v>2553522898.25224</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09758119988541084</v>
+        <v>0.1120702710006995</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03646213451914753</v>
+        <v>0.05196363741477376</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2676717828.354494</v>
+        <v>2536730241.621059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09301086443021898</v>
+        <v>0.08654822573315593</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04250930084842557</v>
+        <v>0.04759545581341627</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3603458308.508333</v>
+        <v>3332426190.084215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1698565203764917</v>
+        <v>0.1719195420176989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03119691444227463</v>
+        <v>0.02254614792683627</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>131</v>
+      </c>
+      <c r="K8" t="n">
+        <v>103.4049373314977</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1509551781.663176</v>
+        <v>2028866892.93292</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1984813998261024</v>
+        <v>0.1545382337553338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03432281973941607</v>
+        <v>0.02469213723799735</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5001252855.865644</v>
+        <v>3715411523.42112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2147079871183107</v>
+        <v>0.137602767932673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03323456391456619</v>
+        <v>0.04534854640392684</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>121</v>
+      </c>
+      <c r="J10" t="n">
+        <v>131</v>
+      </c>
+      <c r="K10" t="n">
+        <v>141.4632664488583</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3178451140.545864</v>
+        <v>3440696619.678002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14640939947578</v>
+        <v>0.1628303827966102</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03811308848314961</v>
+        <v>0.03705601815571834</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>57</v>
+      </c>
+      <c r="J11" t="n">
+        <v>131</v>
+      </c>
+      <c r="K11" t="n">
+        <v>119.0459922128741</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2504774950.112675</v>
+        <v>2219852440.045443</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1967972187838476</v>
+        <v>0.1462196260547373</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05175893187952704</v>
+        <v>0.03881677369213666</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3600320334.947466</v>
+        <v>5264899611.818402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08304971844757016</v>
+        <v>0.06313337184230507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03075056249669919</v>
+        <v>0.02789503990754346</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>64</v>
+      </c>
+      <c r="J13" t="n">
+        <v>132</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2798617147.541569</v>
+        <v>3547235705.045123</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1777248355545961</v>
+        <v>0.1173466505351113</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03425268799176029</v>
+        <v>0.02716558520000756</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1225077569.634347</v>
+        <v>1539430342.388877</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1067521729734736</v>
+        <v>0.08744615771854156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03449524470268744</v>
+        <v>0.04634953117742368</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2641312915.315675</v>
+        <v>2182438188.981299</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07652379304808196</v>
+        <v>0.07719094929321257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05029868333229935</v>
+        <v>0.05057735440308696</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3805835789.912601</v>
+        <v>4241390266.035174</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1486387368029814</v>
+        <v>0.1677162479455012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0494313094314731</v>
+        <v>0.03569267950848273</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>132</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2981933810.512764</v>
+        <v>2944462130.732989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1594582585157878</v>
+        <v>0.1331271885281198</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02758770941051603</v>
+        <v>0.02764757633555032</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1146027692.873454</v>
+        <v>1030793810.208318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1732516118812519</v>
+        <v>0.1444575764010776</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02203508008831547</v>
+        <v>0.02039942417610624</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2399275343.372844</v>
+        <v>1896269749.33207</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1260940631555364</v>
+        <v>0.1142637212937883</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02868519124124893</v>
+        <v>0.02120834308547135</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1769870561.203804</v>
+        <v>2351059831.316</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07278717027028529</v>
+        <v>0.09539366521584804</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03619234479069326</v>
+        <v>0.03719081405759452</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3729621497.825237</v>
+        <v>3533865364.744654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1134993925801093</v>
+        <v>0.1295698806354801</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04584851813517474</v>
+        <v>0.05477365086130986</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1219548804.147975</v>
+        <v>1544330903.686132</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1282294978394749</v>
+        <v>0.1370185209550336</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03341124214646411</v>
+        <v>0.0352958901840263</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3787745156.408426</v>
+        <v>3221536177.696697</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12966565037261</v>
+        <v>0.1285953474575648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02932795910943763</v>
+        <v>0.03175016949963952</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1480603121.841815</v>
+        <v>1143709542.555995</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08596358456904307</v>
+        <v>0.1225128319102382</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02358327464322357</v>
+        <v>0.01969488698507352</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1166064345.310338</v>
+        <v>1065398537.983227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08182656799992342</v>
+        <v>0.1134749538695305</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03161755280314834</v>
+        <v>0.0348907018468473</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4084441996.267231</v>
+        <v>3713092543.101773</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1346802270398422</v>
+        <v>0.1529125700455617</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02311272193842327</v>
+        <v>0.02057325232603412</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>52</v>
+      </c>
+      <c r="J27" t="n">
+        <v>131</v>
+      </c>
+      <c r="K27" t="n">
+        <v>108.4431125675101</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2996100818.102555</v>
+        <v>2513614954.413986</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1199416102352995</v>
+        <v>0.1201973054115685</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03484002186466052</v>
+        <v>0.04632788497825332</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3981493015.54015</v>
+        <v>4977721074.224992</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1030522240420784</v>
+        <v>0.1145572630283098</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04612405382795534</v>
+        <v>0.0410945121249599</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>122</v>
+      </c>
+      <c r="J29" t="n">
+        <v>132</v>
+      </c>
+      <c r="K29" t="n">
+        <v>171.8858542823957</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1471201403.760833</v>
+        <v>1627410106.442081</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09648624408256611</v>
+        <v>0.102141398436437</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03468347149540302</v>
+        <v>0.03507119743393139</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1401763908.209141</v>
+        <v>1232606124.492666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09389694605497229</v>
+        <v>0.07571865015730318</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04798152996940794</v>
+        <v>0.03214274083860033</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1456017122.328009</v>
+        <v>1358002436.504551</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08864503542958271</v>
+        <v>0.09353242138926919</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02926325656319234</v>
+        <v>0.03215527762781937</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2862200087.055489</v>
+        <v>1933455159.398326</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1749878649850403</v>
+        <v>0.1572278522562685</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05058748611279101</v>
+        <v>0.05547489257885056</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1279456390.753769</v>
+        <v>1267016348.850911</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08306777926484818</v>
+        <v>0.1099517042405509</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01924349272695148</v>
+        <v>0.01977741435678244</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286464589.946599</v>
+        <v>1069587651.772215</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1013927116211423</v>
+        <v>0.1036213300647375</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04202051236213036</v>
+        <v>0.02984321301844237</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2505804511.213625</v>
+        <v>2867385121.630263</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1756139484507857</v>
+        <v>0.1130111351641297</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02155635621102538</v>
+        <v>0.02693292559887363</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2366553118.251275</v>
+        <v>1935508721.983052</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09156479815579958</v>
+        <v>0.07011246563643164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02578216447780408</v>
+        <v>0.03505021110625241</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1460519456.435026</v>
+        <v>2178109866.986595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1216677564576766</v>
+        <v>0.09397339107998111</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03121137254897102</v>
+        <v>0.03138520454760028</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1976941723.70866</v>
+        <v>2184768944.852851</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1667034585002291</v>
+        <v>0.1641454101829478</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02853261935163335</v>
+        <v>0.02241482239357065</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1613625690.797976</v>
+        <v>1546484773.732235</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1030646250122649</v>
+        <v>0.1185327688295471</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04977035245215251</v>
+        <v>0.03646891491101841</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1909302600.936836</v>
+        <v>2113653449.039639</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1492954234129101</v>
+        <v>0.126897014239068</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02861665121715903</v>
+        <v>0.03262343795312386</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3326195135.143108</v>
+        <v>2650906361.492189</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08260268607808222</v>
+        <v>0.0982554083717936</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04078387216810882</v>
+        <v>0.03176911270593263</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>49</v>
+      </c>
+      <c r="J42" t="n">
+        <v>130</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2302643206.305526</v>
+        <v>1985336213.288459</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1716971687494698</v>
+        <v>0.135191885978618</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0253432678229524</v>
+        <v>0.01599135468953935</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2110520313.913019</v>
+        <v>1872120359.703228</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08560945096196093</v>
+        <v>0.08176239114794803</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02669156532705776</v>
+        <v>0.03432514991097239</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1632138663.429305</v>
+        <v>2129068579.281212</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1306215053944494</v>
+        <v>0.130462465515384</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04350566609524081</v>
+        <v>0.04689153075876879</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4850382954.178439</v>
+        <v>4915552991.965452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1237367191437894</v>
+        <v>0.1733588620459231</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03730668023625387</v>
+        <v>0.0588450695606158</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>75</v>
+      </c>
+      <c r="J46" t="n">
+        <v>132</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3492672867.278926</v>
+        <v>3594275806.69878</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2032847575888807</v>
+        <v>0.1499569295712996</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05271976391969618</v>
+        <v>0.0556788663817004</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>58</v>
+      </c>
+      <c r="J47" t="n">
+        <v>132</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4690536737.400821</v>
+        <v>4137529061.35493</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07571198710210178</v>
+        <v>0.1043137950552088</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03904893811289724</v>
+        <v>0.03440800913671941</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>52</v>
+      </c>
+      <c r="J48" t="n">
+        <v>132</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1956994703.127564</v>
+        <v>1461792306.623567</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1474452409772153</v>
+        <v>0.1956725657547444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03942215220308815</v>
+        <v>0.03305928781628212</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2797038453.304004</v>
+        <v>2925686451.95946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1146840521249682</v>
+        <v>0.1680439160224171</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05153347291874251</v>
+        <v>0.0370838800380297</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>131</v>
+      </c>
+      <c r="K50" t="n">
+        <v>79.19592488393847</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1540667356.541477</v>
+        <v>1191161558.843277</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1301444939939539</v>
+        <v>0.1881397113149557</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04569604134270645</v>
+        <v>0.05200193341916746</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4201598621.644207</v>
+        <v>5205707289.183756</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1011721130497634</v>
+        <v>0.1277041548373092</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05827578457387476</v>
+        <v>0.05327808410054018</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="n">
+        <v>131</v>
+      </c>
+      <c r="K52" t="n">
+        <v>148.8497288002113</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2873787448.66643</v>
+        <v>3237656898.870035</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1469780100822031</v>
+        <v>0.1743657598488591</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02730297757267837</v>
+        <v>0.02235638028345227</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4196699168.604906</v>
+        <v>4604910201.69135</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1376296806352246</v>
+        <v>0.1182158681753801</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04608999868476878</v>
+        <v>0.05273642839763108</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>60</v>
+      </c>
+      <c r="J54" t="n">
+        <v>131</v>
+      </c>
+      <c r="K54" t="n">
+        <v>148.4214454035143</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4494986994.789444</v>
+        <v>4294875894.546008</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086546394757254</v>
+        <v>0.1845078963174278</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03016463429396461</v>
+        <v>0.03145001696247376</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>60</v>
+      </c>
+      <c r="J55" t="n">
+        <v>132</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1466396153.014019</v>
+        <v>1582054859.222509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1181688417008625</v>
+        <v>0.1181461038852824</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04757126204921321</v>
+        <v>0.05737107556701176</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3226121687.890898</v>
+        <v>3840579900.111114</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1395278254099912</v>
+        <v>0.1724805384984213</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02392363679818646</v>
+        <v>0.01762689017249576</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>52</v>
+      </c>
+      <c r="J57" t="n">
+        <v>132</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1590246067.922508</v>
+        <v>1898566772.380782</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1703283862531672</v>
+        <v>0.1616012115769998</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03073432257440657</v>
+        <v>0.02632265026613179</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4499388554.860188</v>
+        <v>4647521613.777102</v>
       </c>
       <c r="F59" t="n">
-        <v>0.126111546222329</v>
+        <v>0.09691618508607222</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03481817967690095</v>
+        <v>0.04566517153717826</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>64</v>
+      </c>
+      <c r="J59" t="n">
+        <v>131</v>
+      </c>
+      <c r="K59" t="n">
+        <v>136.6514876026052</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3072121018.391226</v>
+        <v>2601316066.793893</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1281826539697666</v>
+        <v>0.1929693949211904</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03157149823729995</v>
+        <v>0.02891034450020049</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3398969770.970562</v>
+        <v>2071851262.858238</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1641250366974244</v>
+        <v>0.113331014626582</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03106894087380454</v>
+        <v>0.03081527831474633</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1687546507.974336</v>
+        <v>2008587127.976141</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1585892445050849</v>
+        <v>0.1869208854891004</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03959923830875636</v>
+        <v>0.03181823957659066</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3979710976.221956</v>
+        <v>5030699541.57976</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08419649031825292</v>
+        <v>0.08093913610498696</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03018945406700578</v>
+        <v>0.0467694650651977</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>65</v>
+      </c>
+      <c r="J63" t="n">
+        <v>131</v>
+      </c>
+      <c r="K63" t="n">
+        <v>133.2010384893364</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3761982335.662062</v>
+        <v>3510574469.705837</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1702100927625014</v>
+        <v>0.1878648301767493</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03157169449482288</v>
+        <v>0.02408817827374728</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>65</v>
+      </c>
+      <c r="J64" t="n">
+        <v>132</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4264820756.179142</v>
+        <v>5515814170.022211</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1722410436812398</v>
+        <v>0.1147899894722206</v>
       </c>
       <c r="G65" t="n">
-        <v>0.029333122330646</v>
+        <v>0.02320509151856139</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>110</v>
+      </c>
+      <c r="J65" t="n">
+        <v>132</v>
+      </c>
+      <c r="K65" t="n">
+        <v>149.5364321345665</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5494088884.962921</v>
+        <v>3952503907.801753</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1220093839383975</v>
+        <v>0.09841887130626464</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04777565875520071</v>
+        <v>0.04243861881225199</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>65</v>
+      </c>
+      <c r="J66" t="n">
+        <v>131</v>
+      </c>
+      <c r="K66" t="n">
+        <v>136.7170939890066</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3487694457.26549</v>
+        <v>2535351029.554129</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09126534267228399</v>
+        <v>0.083969909821248</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03251095233378133</v>
+        <v>0.04640603002477937</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4762212529.211109</v>
+        <v>3908150685.286111</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1345906390501291</v>
+        <v>0.1525334199067294</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03307536611169705</v>
+        <v>0.04481736524415654</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
+      <c r="J68" t="n">
+        <v>132</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2344256624.033198</v>
+        <v>1579904712.694154</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1778399893814783</v>
+        <v>0.1274444063862966</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04229943618233672</v>
+        <v>0.05104658713588285</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2647637959.673859</v>
+        <v>3553555466.557077</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08072520604341493</v>
+        <v>0.0883657274378508</v>
       </c>
       <c r="G70" t="n">
-        <v>0.036537079349505</v>
+        <v>0.04802078967160909</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5411368241.555616</v>
+        <v>5186753621.630216</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1173883371496799</v>
+        <v>0.1269289604032697</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02484442464029841</v>
+        <v>0.02234691462778781</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>106</v>
+      </c>
+      <c r="J71" t="n">
+        <v>132</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1814305573.627757</v>
+        <v>1391707816.594913</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09701028873390492</v>
+        <v>0.09695626108207578</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03223052319384268</v>
+        <v>0.03762158308252243</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2418761518.191198</v>
+        <v>2997342686.942897</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0761139627230026</v>
+        <v>0.1078215871044354</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04245358230776373</v>
+        <v>0.0406076608563006</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2995871854.719574</v>
+        <v>3044835814.277123</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1781519596273167</v>
+        <v>0.1585979512490816</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02879085657924542</v>
+        <v>0.03109444553072553</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>43</v>
+      </c>
+      <c r="J74" t="n">
+        <v>129</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2003495991.969117</v>
+        <v>1654262524.208138</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1086239196448111</v>
+        <v>0.1620482669096545</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0325812816375307</v>
+        <v>0.02344162531110111</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5253333968.952751</v>
+        <v>3261147418.685114</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08352376653561863</v>
+        <v>0.1045723437799067</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0210729549387468</v>
+        <v>0.020884345671622</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>61</v>
+      </c>
+      <c r="J76" t="n">
+        <v>130</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2009189001.01439</v>
+        <v>2266555422.10653</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583279570952362</v>
+        <v>0.1605779569302682</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02372946860286188</v>
+        <v>0.02924545302371382</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4145718362.99173</v>
+        <v>4499047430.647242</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09643148438890387</v>
+        <v>0.09409070877948436</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0478597647377268</v>
+        <v>0.0454784210738208</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>65</v>
+      </c>
+      <c r="J78" t="n">
+        <v>132</v>
+      </c>
+      <c r="K78" t="n">
+        <v>151.556183716251</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1268038432.545306</v>
+        <v>1371225297.756526</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091439087130422</v>
+        <v>0.1208496612138325</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03201621286241882</v>
+        <v>0.03407434934645483</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3765871303.134054</v>
+        <v>4741736849.851749</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07448684135933335</v>
+        <v>0.08366387912745245</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03163069077244255</v>
+        <v>0.03157718892992142</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>64</v>
+      </c>
+      <c r="J80" t="n">
+        <v>131</v>
+      </c>
+      <c r="K80" t="n">
+        <v>109.3254043733682</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4313274190.540339</v>
+        <v>3986920677.744798</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08432383725028372</v>
+        <v>0.1122441896524177</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02737357234432824</v>
+        <v>0.02547062275448502</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>60</v>
+      </c>
+      <c r="J81" t="n">
+        <v>131</v>
+      </c>
+      <c r="K81" t="n">
+        <v>125.755017849626</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4909703989.998265</v>
+        <v>5340145737.103063</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1809512187538763</v>
+        <v>0.2065779853155207</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02138250414612257</v>
+        <v>0.02618028732895349</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>93</v>
+      </c>
+      <c r="J82" t="n">
+        <v>132</v>
+      </c>
+      <c r="K82" t="n">
+        <v>156.2711907575162</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2203415922.002769</v>
+        <v>2429012688.387235</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1340392247472233</v>
+        <v>0.123290904461781</v>
       </c>
       <c r="G83" t="n">
-        <v>0.043293512930582</v>
+        <v>0.03885505998755585</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1733581792.061079</v>
+        <v>1798491492.754459</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09722008767433998</v>
+        <v>0.08506154266440326</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03403306240126765</v>
+        <v>0.03824993753326043</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3085677995.791245</v>
+        <v>3482465474.560143</v>
       </c>
       <c r="F85" t="n">
-        <v>0.112929249112446</v>
+        <v>0.1811431451531677</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04992756697454272</v>
+        <v>0.04807810575463771</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>132</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2365397808.362731</v>
+        <v>2610877815.130423</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1127551679317101</v>
+        <v>0.168388586301355</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02088715193475412</v>
+        <v>0.02421765666381533</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1007891152.064694</v>
+        <v>944410199.5760037</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1884325753335482</v>
+        <v>0.1162393883569202</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03715237151930755</v>
+        <v>0.03923559341775816</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3374144327.239747</v>
+        <v>3374964053.546926</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1454615610901801</v>
+        <v>0.1513617261473565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02815473161753416</v>
+        <v>0.03465808617706108</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2472683992.211576</v>
+        <v>2578883481.46056</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1420166456699191</v>
+        <v>0.1238892944206113</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03451578877003329</v>
+        <v>0.035312246995295</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1881873911.070088</v>
+        <v>1383966949.482965</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1052985883828231</v>
+        <v>0.135084907453321</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05484006476994088</v>
+        <v>0.05357987817831127</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1541114647.495481</v>
+        <v>1849863981.642829</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1878619144236563</v>
+        <v>0.1723750967364161</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04098686132043623</v>
+        <v>0.04585535667136299</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2603534195.742038</v>
+        <v>2490658880.393471</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09828430792005495</v>
+        <v>0.09212554520588172</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03640783297467656</v>
+        <v>0.03134503779779193</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3290075405.635941</v>
+        <v>3824593976.61703</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1278326581441236</v>
+        <v>0.1203139500586225</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03536528984258882</v>
+        <v>0.04488101699584769</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>60</v>
+      </c>
+      <c r="J93" t="n">
+        <v>131</v>
+      </c>
+      <c r="K93" t="n">
+        <v>129.1657457928972</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2283724197.322232</v>
+        <v>1887441407.267598</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1531028404081932</v>
+        <v>0.1101000142511013</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02611005320163975</v>
+        <v>0.03081844087544442</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2485861546.243569</v>
+        <v>3072606996.045057</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1060990855431677</v>
+        <v>0.1312858764309741</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04971599022216903</v>
+        <v>0.04017585611438028</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1993737480.37969</v>
+        <v>2341739436.616685</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238765943895525</v>
+        <v>0.1301591176455072</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04224979826828346</v>
+        <v>0.03571696105363532</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4868031759.356664</v>
+        <v>3243128329.226128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1720408427856453</v>
+        <v>0.1445227340118528</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01802609103110457</v>
+        <v>0.01936891679926471</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>63</v>
+      </c>
+      <c r="J97" t="n">
+        <v>130</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3915340624.298676</v>
+        <v>3504150191.349469</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1063697343601477</v>
+        <v>0.1064338413727196</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02345167785436714</v>
+        <v>0.03155794789717933</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2619046105.164305</v>
+        <v>2849238288.35546</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09802979519653103</v>
+        <v>0.1239719750967668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02897747387141238</v>
+        <v>0.02811105033972354</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3359719921.070699</v>
+        <v>3260127146.519244</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1520588300708625</v>
+        <v>0.1419154476196786</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02722056692457386</v>
+        <v>0.02035491736708013</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>54</v>
+      </c>
+      <c r="J100" t="n">
+        <v>131</v>
+      </c>
+      <c r="K100" t="n">
+        <v>91.16742010482588</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3201659603.668903</v>
+        <v>2559206554.110486</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2221603930209507</v>
+        <v>0.1506731197295658</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05859700733517063</v>
+        <v>0.05752556052749522</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="n">
+        <v>58.93574678692913</v>
       </c>
     </row>
   </sheetData>
